--- a/pred_ohlcv/54_21/2019-10-27 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LOOM ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-234348.9862190082</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-163635.3381190082</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-162183.3480190082</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-162173.3480190082</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-167703.6396190082</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-161717.6101190082</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-156301.6950190082</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-156301.6950190082</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-145194.8870190082</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-186049.1169190082</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-185974.0763190082</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-185986.2125190082</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-176885.8188045749</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-176885.8188045749</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-199207.7374045749</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-293426.8429045749</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-292632.0612045749</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-291311.803204575</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-263385.024904575</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-320791.337604575</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-358604.099304575</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-341304.099304575</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-330968.507504575</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-360309.968504575</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-360309.968504575</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-340953.135304575</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-173455.9841190084</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-173455.9841190084</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-94958.74341900842</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-94958.74341900842</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-169874.0234190084</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-169884.0234190084</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-149803.2131190084</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-149803.2131190084</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-119508.1534190084</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-159927.4333190084</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-146841.8416190084</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-145692.0363190084</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-175459.3931190084</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-261735.8491190084</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-333925.8228190084</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-322038.8228190084</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-394099.3828190084</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-348798.0063190084</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-393873.0711190085</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-606013.0956190083</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LOOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-131196.0976190083</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-236166.5703190083</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-145194.8870190082</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-186049.1169190082</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-185974.0763190082</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-185986.2125190082</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-176885.8188045749</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-176885.8188045749</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-199207.7374045749</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-293426.8429045749</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-292632.0612045749</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-291311.803204575</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-263385.024904575</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-320791.337604575</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-358604.099304575</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-341304.099304575</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-330968.507504575</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-360309.968504575</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-360309.968504575</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-173455.9841190084</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-94958.74341900842</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-169874.0234190084</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-169884.0234190084</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-149803.2131190084</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-149803.2131190084</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-119508.1534190084</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-159927.4333190084</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-157523.4333190084</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-145564.9671190084</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-146841.8416190084</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-145692.0363190084</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-175459.3931190084</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-261735.8491190084</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-333925.8228190084</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-322038.8228190084</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-394099.3828190084</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-348798.0063190084</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-348798.0063190084</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-584856.0956190083</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-613413.0956190083</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-613413.0956190083</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-612086.5835190082</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-612086.5835190082</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-729889.2718190083</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-729889.2718190083</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-729889.2718190083</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
